--- a/docs/list_defined_vulnerability.xlsx
+++ b/docs/list_defined_vulnerability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Penterep\ptnetinspector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viet Anh Phan\Desktop\Trash documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B83C6F-0B33-4073-8CCA-E05AB2EA8C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6380F283-2F67-40F5-A07F-A101294D43F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{EA03AD05-F9FA-4160-9777-1A1CF52484FB}"/>
+    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15885" xr2:uid="{EA03AD05-F9FA-4160-9777-1A1CF52484FB}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>a+</t>
+  </si>
+  <si>
+    <t>PTV-NET-IDENT-ACTIVE-MLDNVERDEV2</t>
+  </si>
+  <si>
+    <t>Device only responds to illegitimate MLDv1 queries even though MLDv2 queries are sent, possibly downgraded</t>
   </si>
 </sst>
 </file>
@@ -650,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1230AB-46B8-4FDC-B377-3F44751E20F1}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,226 +798,226 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
+      <c r="C17" t="s">
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,24 +1028,24 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,38 +1056,38 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,82 +1095,96 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
+      <c r="C32" t="s">
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
-        <v>56</v>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>57</v>
+      <c r="C34" t="s">
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
-        <v>62</v>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>65</v>
       </c>
     </row>

--- a/docs/list_defined_vulnerability.xlsx
+++ b/docs/list_defined_vulnerability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viet Anh Phan\Desktop\Trash documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6380F283-2F67-40F5-A07F-A101294D43F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC46A334-F109-4F23-B592-4A777B708D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15885" xr2:uid="{EA03AD05-F9FA-4160-9777-1A1CF52484FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{EA03AD05-F9FA-4160-9777-1A1CF52484FB}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>Device only responds to illegitimate MLDv1 queries even though MLDv2 queries are sent, possibly downgraded</t>
+  </si>
+  <si>
+    <t>PTV-NET-MITM-ICMP6REDIR</t>
+  </si>
+  <si>
+    <t>PTV-NET-MITM-ICMP6REDIRDEV</t>
+  </si>
+  <si>
+    <t>Network does not block ICMPv6 Redirect messages</t>
+  </si>
+  <si>
+    <t>Device communication can be redirected using ICMPv6 Redirect</t>
   </si>
 </sst>
 </file>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1230AB-46B8-4FDC-B377-3F44751E20F1}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,6 +1200,34 @@
         <v>65</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/list_defined_vulnerability.xlsx
+++ b/docs/list_defined_vulnerability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Penterep\ptnetinspector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viet Anh Phan\Desktop\Trash documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B83C6F-0B33-4073-8CCA-E05AB2EA8C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC46A334-F109-4F23-B592-4A777B708D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{EA03AD05-F9FA-4160-9777-1A1CF52484FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{EA03AD05-F9FA-4160-9777-1A1CF52484FB}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t>a+</t>
+  </si>
+  <si>
+    <t>PTV-NET-IDENT-ACTIVE-MLDNVERDEV2</t>
+  </si>
+  <si>
+    <t>Device only responds to illegitimate MLDv1 queries even though MLDv2 queries are sent, possibly downgraded</t>
+  </si>
+  <si>
+    <t>PTV-NET-MITM-ICMP6REDIR</t>
+  </si>
+  <si>
+    <t>PTV-NET-MITM-ICMP6REDIRDEV</t>
+  </si>
+  <si>
+    <t>Network does not block ICMPv6 Redirect messages</t>
+  </si>
+  <si>
+    <t>Device communication can be redirected using ICMPv6 Redirect</t>
   </si>
 </sst>
 </file>
@@ -650,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1230AB-46B8-4FDC-B377-3F44751E20F1}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,226 +810,226 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
+      <c r="C17" t="s">
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
-        <v>28</v>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,24 +1040,24 @@
         <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,38 +1068,38 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,83 +1107,125 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
+      <c r="C32" t="s">
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
-        <v>56</v>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>57</v>
+      <c r="C34" t="s">
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
-        <v>62</v>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
